--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4183235.123036016</v>
+        <v>4177513.511068129</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75.51862566593914</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.63926978364032</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>159.3199338524827</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.4095352681604</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.92708396620971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.5412609087631</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>81.17400253769641</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.11685474901</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>155.8651612894405</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6643587974112</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.211838205613</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>199.3654827743539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>119.8962688081996</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>115.7930329126642</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>87.88968838155314</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>87.22506181228431</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.1732544673561</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881751</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492313</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.19292662790735</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.380068175847156</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1072447353425</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>206.3669734826436</v>
+        <v>113.5103646250806</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362306</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362306</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>555.1337307379863</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>144.1478259483787</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>130.2244218869697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>130.2244218869697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>228.7956119953924</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>214.8722079339834</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.946621408918</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.984104468507</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7184058617563</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9301532635121</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>486.9846525143086</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>69.02084441249548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>69.02084441249548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1993.54646147304</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.926319971173</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2064.476622801002</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,19 +5284,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5305,19 +5305,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.7083461157126</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="C16" t="n">
-        <v>323.7721631878057</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D16" t="n">
-        <v>323.7721631878057</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1641.307223599197</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1352.20435672484</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024461</v>
+        <v>1097.519868518953</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.1389409875</v>
+        <v>808.1026984819928</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894825</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459524</v>
+        <v>580.1131475839754</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,19 +5518,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3362.809616117416</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
         <v>4260.556453353931</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3371.715434531679</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>3371.715434531679</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D19" t="n">
-        <v>3221.598795119343</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>3221.598795119343</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>3074.708847621433</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>4364.599222816073</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>4364.599222816073</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>4109.914734610186</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>3820.497564573226</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>3592.508013675209</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>3371.715434531679</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749765</v>
@@ -5740,37 +5740,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.301436796792</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5779,10 +5779,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5797,7 +5797,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.835780735837</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C22" t="n">
-        <v>674.89959780793</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D22" t="n">
-        <v>674.89959780793</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E22" t="n">
-        <v>526.9865042255368</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F22" t="n">
-        <v>380.0965567276263</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G22" t="n">
-        <v>212.3937201023452</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501055</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501055</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.890966501055</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.473796464094</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X22" t="n">
-        <v>1025.484245566077</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.484245566077</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6071,7 +6071,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763015</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.7242578147</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1184.34498228505</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>894.927812248089</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500716</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.1456822065413</v>
+        <v>360.5895482553301</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.1538185715858</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1538185715858</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>812.5948625453557</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>591.8022834018255</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6493,16 +6493,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>331.580251073499</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>183.6671574911059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>183.6671574911059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>681.2836032803235</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>460.4910241367934</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6928,49 +6928,49 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1296.118160724477</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554306</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780953</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C37" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D37" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1928.875863450252</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1928.875863450252</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1707.109248019779</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1418.006381145422</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.321892939535</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>873.9047229025747</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>645.9151720045573</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.1225928610272</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.85891762269</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7250,16 +7250,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,25 +7268,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.9395339702917</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C40" t="n">
-        <v>343.0033510423848</v>
+        <v>102.005547757331</v>
       </c>
       <c r="D40" t="n">
-        <v>192.8867116300491</v>
+        <v>102.005547757331</v>
       </c>
       <c r="E40" t="n">
-        <v>192.8867116300491</v>
+        <v>102.005547757331</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>102.005547757331</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1385.724257814702</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1203.797747981022</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>914.3805779440615</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X40" t="n">
-        <v>914.3805779440615</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.5879988005314</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C43" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D43" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E43" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.6979017231758</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644075</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>16.8005733590889</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>241.9338129178262</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>189.1883762200308</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704252</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>229.1155640189917</v>
+        <v>344.7025836476856</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476856</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>89.52456338961929</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>84.85180572133181</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>97.43209452715917</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>58.19598621064686</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.1606469695877</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H22" t="n">
-        <v>29.09065611690967</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004744</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.211838205613</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3524204098382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>52.77216054947425</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>98.68838454389521</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>51.45378818596366</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>137.819967007484</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>78.80074644674391</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.65872571458119</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>61.73922604213997</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831811</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>72.03039858848547</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>12.21767986945122</v>
+        <v>105.0742887270142</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739665</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="F2" t="n">
         <v>794163.5737739658</v>
       </c>
       <c r="G2" t="n">
+        <v>794163.5737739658</v>
+      </c>
+      <c r="H2" t="n">
+        <v>794163.5737739658</v>
+      </c>
+      <c r="I2" t="n">
+        <v>794163.5737739663</v>
+      </c>
+      <c r="J2" t="n">
+        <v>794163.5737739663</v>
+      </c>
+      <c r="K2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="L2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="M2" t="n">
         <v>794163.5737739662</v>
       </c>
-      <c r="H2" t="n">
-        <v>794163.5737739664</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>794163.5737739665</v>
+      </c>
+      <c r="O2" t="n">
         <v>794163.5737739661</v>
       </c>
-      <c r="J2" t="n">
-        <v>794163.5737739662</v>
-      </c>
-      <c r="K2" t="n">
-        <v>794163.5737739663</v>
-      </c>
-      <c r="L2" t="n">
-        <v>794163.5737739663</v>
-      </c>
-      <c r="M2" t="n">
-        <v>794163.5737739664</v>
-      </c>
-      <c r="N2" t="n">
-        <v>794163.5737739657</v>
-      </c>
-      <c r="O2" t="n">
-        <v>794163.5737739662</v>
-      </c>
       <c r="P2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739661</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.142369289011374e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918982</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918994</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>554834.0049437457</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437457</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.85079234384</v>
+        <v>-48417.80569460215</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010623</v>
+        <v>678959.6082988044</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.6082988044</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010631</v>
+        <v>678959.6082988044</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010625</v>
+        <v>678959.6082988048</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084695</v>
+        <v>502536.3891062118</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010627</v>
+        <v>678959.6082988047</v>
       </c>
       <c r="L6" t="n">
-        <v>679631.5632010627</v>
+        <v>678959.6082988046</v>
       </c>
       <c r="M6" t="n">
-        <v>549989.2483621179</v>
+        <v>549317.2934598598</v>
       </c>
       <c r="N6" t="n">
-        <v>679631.5632010621</v>
+        <v>678959.6082988051</v>
       </c>
       <c r="O6" t="n">
-        <v>679631.5632010626</v>
+        <v>678959.6082988045</v>
       </c>
       <c r="P6" t="n">
-        <v>679631.5632010624</v>
+        <v>678959.6082988047</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.427961611264217e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.427961611264217e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.427961611264217e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>76.41269057892211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>19.97794254641989</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.60755131498752</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>164.6028389118744</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.8284033878932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>83.12091415361536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>137.0042322786515</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>61.59638241506494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.81221119209633e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.125499693443999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.678960998152214e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.102654806131261e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32089,13 +32089,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32791,10 +32791,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>472.3906877514211</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>697.5239273101583</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35667,7 +35667,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35737,13 +35737,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35886,22 +35886,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>741.4902116329423</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357551</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306611</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36439,10 +36439,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306611</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>684.705678411324</v>
+        <v>800.2926980400175</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400175</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M44" t="n">
-        <v>628.4456792198461</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4177513.511068129</v>
+        <v>4180919.002192578</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>159.3199338524827</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319829</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>122.4179473152587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>31.21358559799732</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>122.11685474901</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>45.28085849688337</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>122.4179473152587</v>
+        <v>103.1340411809968</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>121.0757368602317</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.8962688081996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>115.7930329126642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>8.733319434779286</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.36690640948906</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.380068175847156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250806</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.15999212057524</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513464</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>235.7411127445959</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>235.7411127445959</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>228.7956119953924</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8722079339834</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685564</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442899</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2730.494725501681</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5068,10 +5068,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,31 +5141,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.811212990069</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C13" t="n">
-        <v>612.8750300621621</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>462.7583906498263</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>462.7583906498263</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>462.7583906498263</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
         <v>339.1038984121913</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1421.531634917173</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>1421.531634917173</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>1421.531634917173</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203087</v>
+        <v>972.7495048756253</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5290,16 +5290,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.1131475839754</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1769646560685</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1641.307223599197</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1352.20435672484</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1097.519868518953</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>808.1026984819928</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>580.1131475839754</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.1131475839754</v>
+        <v>855.6340846510827</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5527,16 +5527,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5758,22 +5758,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.811212990069</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C22" t="n">
-        <v>612.8750300621621</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="D22" t="n">
-        <v>462.7583906498263</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7583906498263</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="F22" t="n">
-        <v>462.7583906498263</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861856</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963839</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4596778203087</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="23">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,7 +6071,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.5895482553301</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C25" t="n">
-        <v>360.5895482553301</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D25" t="n">
-        <v>360.5895482553301</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
         <v>192.8867116300491</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y25" t="n">
-        <v>360.5895482553301</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.3568109459524</v>
+        <v>737.3554149786656</v>
       </c>
       <c r="C28" t="n">
-        <v>557.3941514382108</v>
+        <v>568.4192320507588</v>
       </c>
       <c r="D28" t="n">
-        <v>557.3941514382108</v>
+        <v>418.302592638423</v>
       </c>
       <c r="E28" t="n">
         <v>409.4810578558177</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>737.3554149786656</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6493,16 +6493,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232731</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6791,10 +6791,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,43 +6934,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.85891762269</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294614</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353396</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
@@ -7007,37 +7007,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,58 +7153,58 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.85891762269</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294614</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353396</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604875</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7250,16 +7250,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7268,25 +7268,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570251</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590077</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154776</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786342</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232731</v>
@@ -7675,25 +7675,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
   </sheetData>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>251.1867816683983</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476856</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476856</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476862</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.60786094376952</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>254.9982526076155</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>97.43209452715917</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.4287968921538</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>43.60786094376952</v>
+        <v>62.89176707803139</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>58.7562433217056</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.68838454389521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>51.45378818596366</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.7006432117899</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.24856660872329</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>159.6457400831811</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>129.865816138453</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199848</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612978.2587199847</v>
+        <v>612978.2587199846</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612978.2587199846</v>
+        <v>612978.2587199847</v>
       </c>
     </row>
     <row r="12">
@@ -26322,40 +26322,40 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="F2" t="n">
-        <v>794163.5737739658</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="G2" t="n">
         <v>794163.5737739658</v>
       </c>
       <c r="H2" t="n">
-        <v>794163.5737739658</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="I2" t="n">
-        <v>794163.5737739663</v>
+        <v>794163.5737739661</v>
       </c>
       <c r="J2" t="n">
         <v>794163.5737739663</v>
       </c>
       <c r="K2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="L2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="M2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739658</v>
       </c>
       <c r="N2" t="n">
-        <v>794163.5737739665</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="O2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739663</v>
       </c>
       <c r="P2" t="n">
-        <v>794163.5737739661</v>
+        <v>794163.5737739658</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
@@ -26441,25 +26441,25 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="L4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="M4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="M4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="N4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26496,10 +26496,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371363</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26530,40 +26530,40 @@
         <v>554834.0049437457</v>
       </c>
       <c r="E6" t="n">
-        <v>-48417.80569460215</v>
+        <v>-47813.04628257002</v>
       </c>
       <c r="F6" t="n">
-        <v>678959.6082988044</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="G6" t="n">
-        <v>678959.6082988044</v>
+        <v>679564.3677108365</v>
       </c>
       <c r="H6" t="n">
-        <v>678959.6082988044</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="I6" t="n">
-        <v>678959.6082988048</v>
+        <v>679564.3677108367</v>
       </c>
       <c r="J6" t="n">
-        <v>502536.3891062118</v>
+        <v>503141.1485182439</v>
       </c>
       <c r="K6" t="n">
-        <v>678959.6082988047</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="L6" t="n">
-        <v>678959.6082988046</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="M6" t="n">
-        <v>549317.2934598598</v>
+        <v>549922.0528718916</v>
       </c>
       <c r="N6" t="n">
-        <v>678959.6082988051</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="O6" t="n">
-        <v>678959.6082988045</v>
+        <v>679564.3677108369</v>
       </c>
       <c r="P6" t="n">
-        <v>678959.6082988047</v>
+        <v>679564.3677108365</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>164.6028389118744</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>145.647637080857</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.946981880942</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.678960998152214e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.102654806131261e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>759.2397825566175</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35658,7 +35658,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35667,10 +35667,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35895,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400175</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400175</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359052</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
